--- a/data/income_statement/3digits/total/451_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/451_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>451-Sale of motor vehicles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>451-Sale of motor vehicles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>34448399.58526</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>50344463.13801999</v>
+        <v>50344463.13802</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>68420188.37016</v>
+        <v>68421444.35042</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>70478262.28031</v>
+        <v>70631316.8053</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>80941304.86592999</v>
+        <v>81361285.23311999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>92479235.02101001</v>
+        <v>92845575.68261002</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>117875057.9712</v>
+        <v>119440124.66764</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>129910807.52288</v>
+        <v>133024142.74274</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>155840608.26167</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>157142311.22214</v>
+        <v>157281202.7598</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>160093835.56292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>161069206.88897</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>298253049.358</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>32502404.52988</v>
@@ -995,76 +906,86 @@
         <v>48133329.24449001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>65686888.58194999</v>
+        <v>65688138.57852001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>67115666.59761</v>
+        <v>67262818.52322</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>77793075.2692</v>
+        <v>78193755.63857001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>88622162.03608</v>
+        <v>88972161.46276</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>113230059.90174</v>
+        <v>114741048.38082</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>124805414.02261</v>
+        <v>127914204.55166</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>149730123.78001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>147273889.8858</v>
+        <v>147400556.65359</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>148705732.18003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>149628321.92088</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>284249634.085</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>393087.01736</v>
+        <v>393087.0173599999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>370126.9144200001</v>
+        <v>370126.9144199999</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>492580.79206</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>806450.0366399999</v>
+        <v>806450.0366400001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>609704.7623099999</v>
+        <v>609704.76231</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>850206.2906699999</v>
+        <v>851608.63312</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>845241.8672000001</v>
+        <v>846793.56829</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>998157.7398</v>
+        <v>1001058.69326</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>1239946.44514</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4869300.25646</v>
+        <v>4876598.379149999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>6341988.69179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6379513.82407</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6329269.13</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1552908.03802</v>
@@ -1073,37 +994,42 @@
         <v>1841006.97911</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2240718.99615</v>
+        <v>2240724.97984</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2556145.64606</v>
+        <v>2562048.24544</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2538524.83442</v>
+        <v>2557824.83224</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3006866.69426</v>
+        <v>3021805.58673</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>3799756.20226</v>
+        <v>3852282.71853</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4107235.76047</v>
+        <v>4108879.49782</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4870538.036520001</v>
+        <v>4870538.03652</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>4999121.079879999</v>
+        <v>5004047.727059999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>5046114.6911</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>5061371.14402</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>7674146.143</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1609471.65544</v>
@@ -1115,73 +1041,83 @@
         <v>3119152.60767</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3326421.9116</v>
+        <v>3376071.74526</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3736881.17234</v>
+        <v>3742777.64781</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4634432.586010001</v>
+        <v>4642156.733770001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5565860.14443</v>
+        <v>5633810.772530001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6299118.58673</v>
+        <v>6357649.21408</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>7173905.04305</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>8278488.088059999</v>
+        <v>8278504.137399999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7990079.649470001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>8032801.215370001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>12319388.404</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>202090.85258</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>292770.15953</v>
+        <v>292770.1595299999</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>424251.23444</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>444331.3618900001</v>
+        <v>444638.09947</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>542577.8049199999</v>
+        <v>542906.50403</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>636444.4884499999</v>
+        <v>638388.34506</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>656918.2291600001</v>
+        <v>659889.6076799999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>861866.38488</v>
+        <v>868657.5788199999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>823654.01576</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1377711.87151</v>
+        <v>1377722.21778</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1283578.01667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1285723.09025</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1345483.895</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1154091.80722</v>
@@ -1193,34 +1129,39 @@
         <v>1997652.63176</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2139617.97423</v>
+        <v>2146280.34876</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2377223.76575</v>
+        <v>2382682.067830001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2976616.864459999</v>
+        <v>2982397.15561</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3668649.12262</v>
+        <v>3689411.82275</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4035492.55452</v>
+        <v>4086793.23266</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>4853907.00012</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5279199.109719999</v>
+        <v>5279200.475529999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5334584.52767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5335524.01968</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>8145291.51</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>253288.99564</v>
@@ -1232,34 +1173,39 @@
         <v>697248.7414699999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>742472.5754799999</v>
+        <v>785153.29703</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>817079.60167</v>
+        <v>817189.07595</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>1021371.2331</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1240292.79265</v>
+        <v>1284509.3421</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1401759.64733</v>
+        <v>1402198.4026</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1496344.02717</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1621577.10683</v>
+        <v>1621581.44409</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1371917.10513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1411554.10544</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2828612.999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>32838927.92982</v>
@@ -1268,115 +1214,130 @@
         <v>47992997.08541001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>65301035.76249</v>
+        <v>65302291.74275</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>67151840.36871001</v>
+        <v>67255245.06004</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>77204423.69359</v>
+        <v>77618507.58531001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>87844802.435</v>
+        <v>88203418.94883999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>112309197.82677</v>
+        <v>113806313.89511</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>123611688.93615</v>
+        <v>126666493.52866</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>148666703.21862</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>148863823.13408</v>
+        <v>149002698.6224</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>152103755.91345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>153036405.6736</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>285933660.954</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>29331252.73391</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>43441610.31702</v>
+        <v>43441610.31702001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>59822099.42557999</v>
+        <v>59823139.07568</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>61298211.62328999</v>
+        <v>61391161.88490999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>70739566.77566001</v>
+        <v>71119410.75443</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>80545636.80056</v>
+        <v>80870863.4058</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>103213953.04664</v>
+        <v>104582168.40155</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>113393068.46522</v>
+        <v>116133703.25126</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>135598157.48964</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>133961471.22115</v>
+        <v>134095443.45251</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>136848707.14456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>137724023.71675</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>261482452.714</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>208046.52451</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>415059.8700999999</v>
+        <v>415059.8701</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>699035.37784</v>
+        <v>699755.3778400001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>350811.2634</v>
+        <v>351790.45642</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>616849.69624</v>
+        <v>629639.33147</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>864760.8335699999</v>
+        <v>888317.56622</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1386795.10014</v>
+        <v>1421231.00467</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1016201.47147</v>
+        <v>1016608.38647</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1150639.06385</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1054736.63142</v>
+        <v>1055694.15696</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1201029.01867</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1147964.87287</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2554320.46</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>27820216.05383</v>
@@ -1385,37 +1346,42 @@
         <v>41553166.40282</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>57344761.70547999</v>
+        <v>57345081.23694</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>58910826.46287</v>
+        <v>58988310.49132001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>67665611.39866</v>
+        <v>68018066.62711</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>76704256.48548001</v>
+        <v>76994147.47369</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>98508274.06265001</v>
+        <v>99722193.71102999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>108418114.05609</v>
+        <v>111154384.00964</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>129460251.66068</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>126978226.43415</v>
+        <v>127106925.71033</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>129543918.98327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>130470935.16825</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>251344209.03</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1264331.86803</v>
@@ -1424,37 +1390,42 @@
         <v>1339332.9583</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1633188.17437</v>
+        <v>1633188.29301</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1850658.61605</v>
+        <v>1864480.74465</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2211487.43325</v>
+        <v>2225670.19513</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2699027.9185</v>
+        <v>2710806.80288</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2927684.616059999</v>
+        <v>3038816.636039999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3427248.70434</v>
+        <v>3430780.76415</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>4153804.91462</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5038554.87507</v>
+        <v>5042626.483100001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5243168.59379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5243186.237199999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6066458.962</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>38658.28754</v>
@@ -1466,34 +1437,39 @@
         <v>145114.16789</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>185915.28097</v>
+        <v>186580.19252</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>245618.24751</v>
+        <v>246034.60072</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>277591.56301</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>391199.26779</v>
+        <v>399927.04981</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>531504.23332</v>
+        <v>531930.091</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>833461.8504899999</v>
+        <v>833461.8504900001</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>889953.28051</v>
+        <v>890197.1021199999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>860590.5488299999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>861937.4384300001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1517464.262</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>3507675.19591</v>
@@ -1502,37 +1478,42 @@
         <v>4551386.768390001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>5478936.33691</v>
+        <v>5479152.66707</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5853628.74542</v>
+        <v>5864083.17513</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6464856.91793</v>
+        <v>6499096.830879999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7299165.63444</v>
+        <v>7332555.54304</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>9095244.780129999</v>
+        <v>9224145.493560001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>10218620.47093</v>
+        <v>10532790.2774</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>13068545.72898</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>14902351.91293</v>
+        <v>14907255.16989</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>15255048.76889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>15312381.95685</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>24451208.24</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>2828039.81202</v>
@@ -1541,37 +1522,42 @@
         <v>3471740.691980001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>4086434.71661</v>
+        <v>4086551.29433</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>4701447.4512</v>
+        <v>4710498.08694</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4936513.55012</v>
+        <v>4965362.37581</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5548319.901699999</v>
+        <v>5572068.420309999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>6539546.7911</v>
+        <v>6636673.452079999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>7704080.28783</v>
+        <v>7863912.86675</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>9142538.030850001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10489690.08805</v>
+        <v>10516654.66986</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10864567.93307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10917079.29727</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>14270973.789</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1069.21911</v>
@@ -1589,7 +1575,7 @@
         <v>3804.09247</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3546.66852</v>
+        <v>3546.668520000001</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>12326.86187</v>
@@ -1601,16 +1587,21 @@
         <v>5149.05631</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2022.08584</v>
+        <v>2046.01114</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>1298.63825</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2938.286</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>1330680.44739</v>
@@ -1622,34 +1613,39 @@
         <v>2000253.74633</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2392685.53734</v>
+        <v>2397125.49874</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2328012.59915</v>
+        <v>2332105.147129999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2524677.81712</v>
+        <v>2527407.33173</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>3062184.51165</v>
+        <v>3107716.66813</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>3539611.595730001</v>
+        <v>3647335.95534</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>4214069.41719</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4751502.78382</v>
+        <v>4752258.129299999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4700974.305</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4711945.223099999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>6128106.821</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1496290.14552</v>
@@ -1658,115 +1654,130 @@
         <v>1690568.35185</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>2082450.40909</v>
+        <v>2082566.98681</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2306832.88464</v>
+        <v>2311443.55898</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2604696.8585</v>
+        <v>2629453.13621</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3020095.41606</v>
+        <v>3041114.42006</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3465035.417580001</v>
+        <v>3516629.92208</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4163897.40735</v>
+        <v>4216005.62666</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4923319.557349999</v>
+        <v>4923319.55735</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5736165.21839</v>
+        <v>5762350.529420001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6162294.989820001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6203835.43592</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8139928.682</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>679635.3838899999</v>
+        <v>679635.3838900001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>1079646.07641</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1392501.6203</v>
+        <v>1392601.37274</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1152181.29422</v>
+        <v>1153585.08819</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1528343.36781</v>
+        <v>1533734.45507</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1750845.73274</v>
+        <v>1760487.12273</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>2555697.98903</v>
+        <v>2587472.04148</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2514540.1831</v>
+        <v>2668877.41065</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3926007.69813</v>
+        <v>3926007.698129999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>4412661.82488</v>
+        <v>4390600.50003</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>4390480.83582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4395302.65958</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>10180234.451</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5632487.480469999</v>
+        <v>5632487.48047</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>3800699.81392</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1545058.90787</v>
+        <v>1545057.67668</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1543346.10873</v>
+        <v>1545779.94891</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4601418.13598</v>
+        <v>4603846.826239999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2739460.14535</v>
+        <v>2741804.24587</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3562944.43485</v>
+        <v>3574421.366609999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4327929.00849</v>
+        <v>5035175.3494</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4948877.370080001</v>
+        <v>4948877.370079999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>7657720.98557</v>
+        <v>7769808.503580001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>13998783.72146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>14016799.20879</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>10014539.223</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>10283.01557</v>
@@ -1781,52 +1792,57 @@
         <v>46308.96726</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>25249.76768</v>
+        <v>25267.34018</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>64134.48164</v>
+        <v>64194.39314</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>119738.96766</v>
+        <v>119744.4058</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>73440.95665000001</v>
+        <v>73444.07109</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>95011.43458999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>53409.35215000001</v>
+        <v>79380.14384</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>84381.38043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>93857.26153</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>18235.171</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>3377.89198</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>5674.987720000001</v>
+        <v>5674.987719999999</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>7807.208</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>7417.8738</v>
+        <v>7417.873799999999</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>5196.75974</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>7080.738130000001</v>
+        <v>7080.738129999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>5424.90495</v>
+        <v>7833.47795</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>12230.6216</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>40499.80191999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>79567.564</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>116969.86777</v>
@@ -1853,76 +1874,86 @@
         <v>106278.36566</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>92746.30885000003</v>
+        <v>92746.30885000002</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>108208.93506</v>
+        <v>108239.33163</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>102042.77859</v>
+        <v>102798.10975</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>120106.48209</v>
+        <v>120441.91611</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>143934.778</v>
+        <v>146037.73617</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>159849.37342</v>
+        <v>167069.75854</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>259947.99476</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>541703.61837</v>
+        <v>545921.38353</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>868448.00624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>871842.1783199999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1011970.291</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>40670.03661</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>45162.93352000001</v>
+        <v>45162.93352</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>43002.29980000001</v>
+        <v>43002.29979999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>47301.45655999999</v>
+        <v>47301.45656000001</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>59415.36707</v>
+        <v>60147.13409000001</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>53695.82726999999</v>
+        <v>53699.98287</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>75071.49809000001</v>
+        <v>75283.57669000002</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>87976.30913999998</v>
+        <v>88014.73579999998</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>105911.69942</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>141729.23961</v>
+        <v>141730.23961</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>148754.18979</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>148779.3953</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>161074.085</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>18346.17886</v>
@@ -1934,34 +1965,39 @@
         <v>15236.11591</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>12910.76443</v>
+        <v>12917.70021</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>18347.74958</v>
+        <v>18458.51602</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>47734.86534999999</v>
+        <v>47846.35534999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>27424.81324</v>
+        <v>27750.89563</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>52239.7201</v>
+        <v>52489.7201</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>24671.94551</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>60903.60075</v>
+        <v>60923.47345</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>40280.13978</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>40206.3021</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>37385.835</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4367.31642</v>
@@ -1970,19 +2006,19 @@
         <v>2393.04704</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4795.21988</v>
+        <v>4795.219880000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>7169.867099999999</v>
+        <v>7177.17872</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>35574.94014</v>
+        <v>35578.8579</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6484.91194</v>
+        <v>6521.53146</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>72138.71016</v>
+        <v>72247.42203</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>8544.12833</v>
@@ -1991,58 +2027,68 @@
         <v>12718.18441</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>29660.26462</v>
+        <v>29690.62314</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>47292.67789</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>43057.138</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>5132925.052339999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3259893.550299999</v>
+        <v>3259893.5503</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>900240.28117</v>
+        <v>900240.2811700001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>778178.93507</v>
+        <v>779978.4568</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3708310.37758</v>
+        <v>3708560.15671</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1684256.75358</v>
+        <v>1684515.33765</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2100486.99708</v>
+        <v>2103067.79404</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2824176.61773</v>
+        <v>3479164.49857</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3073814.10081</v>
+        <v>3073814.100809999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5032294.04415</v>
+        <v>5094256.54722</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10922445.76289</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>10924626.66734</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6542660.673</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>4315.23844</v>
+        <v>4315.238439999999</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>3337.1492</v>
@@ -2063,22 +2109,27 @@
         <v>13780.30272</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>56083.25785999999</v>
+        <v>56083.25786</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>11452.92626</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>64912.23803999999</v>
+        <v>64912.23804</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>108594.19554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>108626.54359</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>68540.97500000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>348.15202</v>
@@ -2087,7 +2138,7 @@
         <v>400.22902</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>989.45167</v>
+        <v>989.4516699999999</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>74.44353</v>
@@ -2096,7 +2147,7 @@
         <v>158.14913</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>9858.537390000003</v>
+        <v>9858.537390000001</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>1299.43057</v>
@@ -2108,16 +2159,21 @@
         <v>2078.59235</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>42.57509</v>
+        <v>146.64678</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>689.80013</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1279.794</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>300884.73046</v>
@@ -2126,40 +2182,45 @@
         <v>332072.14687</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>447742.62228</v>
+        <v>447741.39109</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>510493.56596</v>
+        <v>511083.24044</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>631873.5855299999</v>
+        <v>632433.1417799999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>732836.33709</v>
+        <v>734374.2429</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1003644.03238</v>
+        <v>1007376.32501</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1053012.5878</v>
+        <v>1097759.12165</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>1359036.46501</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1725889.72298</v>
+        <v>1745670.87816</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1737397.76685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1740378.58067</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2050767.697</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>5346383.454470001</v>
+        <v>5346383.45447</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>3496895.24798</v>
@@ -2168,34 +2229,39 @@
         <v>1353055.6377</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1117786.31657</v>
+        <v>1119284.41264</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4501808.71358</v>
+        <v>4504057.185610001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2273254.99644</v>
+        <v>2274102.79946</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2961185.17762</v>
+        <v>2968822.39271</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3770467.290649999</v>
+        <v>4546984.09717</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4610885.86786</v>
+        <v>4610885.867860001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7288347.101620001</v>
+        <v>7313830.20285</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12433800.24771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>12436575.98923</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>7733188.294</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>29728.27179</v>
@@ -2210,31 +2276,36 @@
         <v>104997.496</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>95334.2925</v>
+        <v>95575.58667999999</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>120378.09502</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>77973.54295</v>
+        <v>78084.49721</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>69877.87192000001</v>
+        <v>182555.00335</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>273120.52488</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>314741.25549</v>
+        <v>314805.08899</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>291851.5616</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>291850.81486</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>239660.4</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>63356.56412</v>
@@ -2246,19 +2317,19 @@
         <v>31469.03165</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>48547.2022</v>
+        <v>48547.20219999999</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>52506.44991</v>
+        <v>52558.67991</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>76041.26828</v>
+        <v>76327.87568000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>78995.44497</v>
+        <v>79517.60841</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>97947.72234000001</v>
+        <v>98004.74232999999</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>107033.70894</v>
@@ -2267,13 +2338,18 @@
         <v>184995.03566</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>123731.65711</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>123733.63642</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>237196.111</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1722.5231</v>
@@ -2300,7 +2376,7 @@
         <v>811.8901099999999</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>723.1767499999999</v>
+        <v>723.17675</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>50747.60032</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>85805.36379</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>17594.379</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>5093452.8325</v>
@@ -2324,34 +2405,39 @@
         <v>1007259.30854</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>683627.6941999999</v>
+        <v>685124.6614600001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3910932.35806</v>
+        <v>3912887.3059</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1564417.88931</v>
+        <v>1564979.08224</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2275954.54262</v>
+        <v>2281053.52597</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3080954.39576</v>
+        <v>3731143.00767</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3494784.26491</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5773262.207050001</v>
+        <v>5797275.6027</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10999701.89433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11002328.9334</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6394123.66</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>1670.09278</v>
@@ -2384,13 +2470,18 @@
         <v>85495.01554000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>95216.43029</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>95216.43028999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>83670.303</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>373.4065</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>48.63054</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>175.59</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>156079.76368</v>
@@ -2441,115 +2537,130 @@
         <v>232075.66459</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>255793.82659</v>
+        <v>255794.9554</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>422821.50068</v>
+        <v>422821.5006900001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>499180.35987</v>
+        <v>499180.3625599999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>502480.8039200001</v>
+        <v>504385.91796</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>504236.40326</v>
+        <v>517830.44645</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>682818.40569</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>879042.2181300002</v>
+        <v>880448.0902099999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>837444.7100500001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>837592.1799300001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>760767.851</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>654713.6461600001</v>
+        <v>654713.64616</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>467498.16319</v>
+        <v>467498.1631900001</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>807448.02526</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>813299.9789000001</v>
+        <v>814428.3459099999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1125094.29646</v>
+        <v>1128782.22251</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1274159.55114</v>
+        <v>1279746.65676</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1712113.94086</v>
+        <v>1738223.42244</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2424949.52347</v>
+        <v>2431186.18148</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>3250075.49651</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>6309477.83359</v>
+        <v>6310533.555020001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>5501999.27168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>5520369.88517</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4289247.926</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>601065.3278099999</v>
+        <v>601065.32781</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>421534.75317</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>702554.30383</v>
+        <v>702554.3038299999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>779020.24105</v>
+        <v>779065.5267200002</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1053239.1508</v>
+        <v>1056564.70051</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1197804.45825</v>
+        <v>1203391.56387</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1597267.82836</v>
+        <v>1623377.30994</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2257359.84676</v>
+        <v>2263274.51391</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>3003025.43819</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>5957435.1569</v>
+        <v>5958416.522579999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>5299818.31008</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>5318135.935640001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4073303.099</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>53648.31834999999</v>
+        <v>53648.31835</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>45963.41002</v>
@@ -2558,10 +2669,10 @@
         <v>104893.72143</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>34279.73785</v>
+        <v>35362.81918999999</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>71855.14565999999</v>
+        <v>72217.522</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>76355.09289</v>
@@ -2570,61 +2681,71 @@
         <v>114846.1125</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>167589.67671</v>
+        <v>167911.66757</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>247050.05832</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>352042.6766900001</v>
+        <v>352117.03244</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>202180.9616</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>202233.94953</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>215944.827</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>311025.76373</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>915952.47916</v>
+        <v>915952.4791600001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>777056.8652100001</v>
+        <v>777155.3864600001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>764441.10748</v>
+        <v>765652.27855</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>502858.49375</v>
+        <v>504741.87319</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>942891.33051</v>
+        <v>948441.91238</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1445343.3054</v>
+        <v>1454847.59294</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>647052.3774700001</v>
+        <v>725882.4813999999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1013923.70384</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-1527442.12476</v>
+        <v>-1463954.75426</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>453465.0378899999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>455155.99397</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>8172337.454</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>251707.75516</v>
@@ -2633,37 +2754,42 @@
         <v>299430.89666</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>774131.09607</v>
+        <v>774131.0960700001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>451288.82715</v>
+        <v>453580.1081300001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>686326.14588</v>
+        <v>692471.8205599999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>742129.3292700001</v>
+        <v>745273.258</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>748313.3095799999</v>
+        <v>757422.2677000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>889149.74469</v>
+        <v>896572.3358299999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1036078.5925</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1314114.90223</v>
+        <v>1315815.72969</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1279438.87866</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1297622.31735</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1564149.969</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1741.15565</v>
@@ -2678,31 +2804,36 @@
         <v>2610.28868</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>12709.68111</v>
+        <v>13418.4886</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>16629.30333</v>
+        <v>17943.03082</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4204.70181</v>
+        <v>5496.40455</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>14043.7644</v>
+        <v>17936.25334</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>10555.35957</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>9481.941739999998</v>
+        <v>9481.94174</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>14433.90261</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>14531.78307</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>11137.337</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>249966.59951</v>
@@ -2711,37 +2842,42 @@
         <v>296707.28994</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>740692.6961300002</v>
+        <v>740692.6961299999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>448678.53847</v>
+        <v>450969.8194500001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>673616.46477</v>
+        <v>679053.33196</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>725500.0259400001</v>
+        <v>727330.22718</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>744108.60777</v>
+        <v>751925.8631500001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>875105.9802900001</v>
+        <v>878636.0824900001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1025523.23293</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1304632.96049</v>
+        <v>1306333.78795</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1265004.97605</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1283090.53428</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1553012.632</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>120170.19104</v>
@@ -2750,37 +2886,42 @@
         <v>255212.71726</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>717699.94062</v>
+        <v>717700.2793200001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>141617.13617</v>
+        <v>141749.56994</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>233978.6572</v>
+        <v>236294.98227</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>398056.79324</v>
+        <v>398343.74463</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>217075.42269</v>
+        <v>218623.4367</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>497516.06592</v>
+        <v>501136.0537</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>343317.87541</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>686680.3864699999</v>
+        <v>689788.8780499999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>529084.33602</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>535356.94016</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>667995.7709999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1327.48335</v>
@@ -2801,7 +2942,7 @@
         <v>2184.48068</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>511.01976</v>
+        <v>850.95625</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>1091.8924</v>
@@ -2810,16 +2951,21 @@
         <v>1662.30404</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1256.68726</v>
+        <v>1281.92873</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2179.18307</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2186.18296</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2827.577</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>8316.77233</v>
@@ -2831,7 +2977,7 @@
         <v>14751.60145</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>7736.467339999999</v>
+        <v>7736.46734</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>9242.86436</v>
@@ -2840,25 +2986,30 @@
         <v>9836.98508</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5687.68753</v>
+        <v>5791.60858</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>15674.04335</v>
+        <v>15751.10716</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>8845.375680000001</v>
+        <v>8845.375679999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9892.514929999999</v>
+        <v>9988.254300000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>22344.20787</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>22344.37804</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>97517.738</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>110525.93536</v>
@@ -2867,37 +3018,42 @@
         <v>236178.89234</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>702250.67693</v>
+        <v>702251.0156299999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>132345.38549</v>
+        <v>132477.81926</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>223466.92539</v>
+        <v>225783.25046</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>386035.32748</v>
+        <v>386322.27887</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>210876.7154</v>
+        <v>211980.87187</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>480750.13017</v>
+        <v>484293.05414</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>332810.19569</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>675531.1842799999</v>
+        <v>678518.69502</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>504560.94508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>510826.37916</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>567650.456</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>442563.32785</v>
@@ -2906,112 +3062,125 @@
         <v>960170.6585599999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>833488.02066</v>
+        <v>833586.2032099999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1074112.79846</v>
+        <v>1077482.81674</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>955205.9824300001</v>
+        <v>960918.7114800001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1286963.86654</v>
+        <v>1295371.42575</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1976581.19229</v>
+        <v>1993646.42394</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1038686.05624</v>
+        <v>1121318.76353</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1706684.42093</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-900007.6090000001</v>
+        <v>-837927.9026199999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1203819.58053</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1217421.37116</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>9068491.652000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>85824.07218999999</v>
+        <v>85824.07219000001</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>190929.26153</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>211005.07375</v>
+        <v>211005.14417</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>222540.5623</v>
+        <v>222580.05327</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>233609.47511</v>
+        <v>235162.45149</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>293218.22232</v>
+        <v>294884.51115</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>355804.19129</v>
+        <v>359577.01323</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>270617.86282</v>
+        <v>287360.03751</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>331054.30824</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>305764.23854</v>
+        <v>316519.89207</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>433149.64108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>436737.05162</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1671995.896</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>356739.25566</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>769241.39703</v>
+        <v>769241.3970300001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>622482.9469100001</v>
+        <v>622581.05904</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>851572.2361600001</v>
+        <v>854902.76347</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>721596.50732</v>
+        <v>725756.25999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>993745.64422</v>
+        <v>1000486.9146</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1620777.001</v>
+        <v>1634069.41071</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>768068.1934199999</v>
+        <v>833958.7260199999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1375630.11269</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1205771.84754</v>
+        <v>-1154447.79469</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>770669.9394499999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>780684.3195399999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7396495.756</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>4778</v>
@@ -3038,34 +3210,37 @@
         <v>4826</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>4908</v>
+        <v>4910</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4805</v>
+        <v>4812</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4800</v>
+        <v>4818</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>4849</v>
+        <v>4874</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5123</v>
+        <v>5179</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>5601</v>
+        <v>5628</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>6172</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6124</v>
+        <v>6934</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>6565</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>7690</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>9713</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>